--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Naver MYBOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\UnrealProjects\CPP\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E99AF5-729E-4F61-A539-E1C28492B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B34E51-69DA-465C-814C-1213CA47EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,12 @@
   <si>
     <t>CSkillComponent
 CSkill_Active_Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSkillComponent
+CSkill_Active_Throw
+CBoomerang_Thorw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,16 +939,16 @@
   <dimension ref="A2:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2:W5"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="36" width="30.69921875" customWidth="1"/>
+    <col min="2" max="36" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1050,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1126,8 +1132,12 @@
       <c r="Y3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="Z3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1138,7 +1148,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1214,8 +1224,12 @@
       <c r="Y4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="Z4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -1226,7 +1240,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="295.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1300,8 +1314,12 @@
       <c r="Y5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="Z5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\UnrealProjects\CPP\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B34E51-69DA-465C-814C-1213CA47EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988A235-83CD-4E53-9236-B5B50E4D47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,33 @@
     <t>CSkillComponent
 CSkill_Active_Throw
 CBoomerang_Thorw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSkillComponent
+ItemSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,16 +966,16 @@
   <dimension ref="A2:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA4" sqref="AA4"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="36" width="30.75" customWidth="1"/>
+    <col min="2" max="36" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1056,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1165,9 @@
       <c r="AA3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1148,7 +1177,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="99" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1259,9 @@
       <c r="AA4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1240,7 +1271,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="330.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1351,9 @@
       <c r="AA5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988A235-83CD-4E53-9236-B5B50E4D47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE35171-5693-4418-BF9C-CE2569721BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,37 @@
   <si>
     <t>CSkillComponent
 ItemSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDropItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,8 +997,8 @@
   <dimension ref="A2:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z5"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB2" sqref="AB2:AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1168,8 +1199,12 @@
       <c r="AB3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AC3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
@@ -1262,8 +1297,12 @@
       <c r="AB4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AC4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
@@ -1271,7 +1310,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="330.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="348" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1354,8 +1393,12 @@
       <c r="AB5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AC5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE35171-5693-4418-BF9C-CE2569721BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27FE826-EE09-4522-9320-7982FCC68EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,11 @@
 CSkill_Active_Throw
 CBoomerang_Thorw
 CDropItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryComponent
+InventoryWidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +1002,8 @@
   <dimension ref="A2:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2:AB5"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1205,8 +1210,12 @@
       <c r="AD3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AE3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -1303,8 +1312,12 @@
       <c r="AD4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AE4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1399,8 +1412,12 @@
       <c r="AD5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AE5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27FE826-EE09-4522-9320-7982FCC68EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B1BF-685A-423B-B765-851B75DAF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,35 @@
   <si>
     <t>InventoryComponent
 InventoryWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumableItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1031,8 @@
   <dimension ref="A2:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2:AD5"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG2" sqref="AG2:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1216,9 +1245,15 @@
       <c r="AF3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="AG3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" ht="104.4" x14ac:dyDescent="0.4">
@@ -1318,12 +1353,18 @@
       <c r="AF4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+      <c r="AG4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="348" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="382.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1418,9 +1459,15 @@
       <c r="AF5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+      <c r="AG5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="AJ5" s="1"/>
     </row>
   </sheetData>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B1BF-685A-423B-B765-851B75DAF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA49FAC-F2D6-428C-A8CD-52E7652C1185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,24 @@
   </si>
   <si>
     <t>ConsumableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월01일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridding
+스킬 단축키 설정 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumableItem
+Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitWidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,19 +1046,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
-  <dimension ref="A2:AJ5"/>
+  <dimension ref="A2:AK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG2" sqref="AG2:AG5"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI2" sqref="AI2:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="36" width="30.69921875" customWidth="1"/>
+    <col min="2" max="37" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1147,8 +1165,11 @@
       <c r="AJ2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1246,17 +1267,22 @@
         <v>73</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ3" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1362,9 +1388,14 @@
       <c r="AI4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" ht="382.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1499,12 @@
       <c r="AI5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA49FAC-F2D6-428C-A8CD-52E7652C1185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1900D-966D-4B98-A771-99D121A83947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="작업일지" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,6 +628,189 @@
   </si>
   <si>
     <t>HitWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월02일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월03일</t>
+  </si>
+  <si>
+    <t>12월04일</t>
+  </si>
+  <si>
+    <t>12월05일</t>
+  </si>
+  <si>
+    <t>12월06일</t>
+  </si>
+  <si>
+    <t>12월07일</t>
+  </si>
+  <si>
+    <t>12월08일</t>
+  </si>
+  <si>
+    <t>12월09일</t>
+  </si>
+  <si>
+    <t>12월10일</t>
+  </si>
+  <si>
+    <t>12월11일</t>
+  </si>
+  <si>
+    <t>12월12일</t>
+  </si>
+  <si>
+    <t>12월13일</t>
+  </si>
+  <si>
+    <t>12월14일</t>
+  </si>
+  <si>
+    <t>12월15일</t>
+  </si>
+  <si>
+    <t>12월16일</t>
+  </si>
+  <si>
+    <t>12월17일</t>
+  </si>
+  <si>
+    <t>12월18일</t>
+  </si>
+  <si>
+    <t>12월19일</t>
+  </si>
+  <si>
+    <t>12월20일</t>
+  </si>
+  <si>
+    <t>12월21일</t>
+  </si>
+  <si>
+    <t>12월22일</t>
+  </si>
+  <si>
+    <t>12월23일</t>
+  </si>
+  <si>
+    <t>12월24일</t>
+  </si>
+  <si>
+    <t>12월25일</t>
+  </si>
+  <si>
+    <t>12월26일</t>
+  </si>
+  <si>
+    <t>12월27일</t>
+  </si>
+  <si>
+    <t>12월28일</t>
+  </si>
+  <si>
+    <t>12월29일</t>
+  </si>
+  <si>
+    <t>12월30일</t>
+  </si>
+  <si>
+    <t>12월31일</t>
+  </si>
+  <si>
+    <t>Ridding
+Navigation
+스킬 단축키 설정 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridding
+Navigation
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillComponent
+QuickSlotComponent
+기타 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navgation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비창 https://www.youtube.com/watch?v=a9iho861SlY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +914,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,19 +1236,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
-  <dimension ref="A2:AK5"/>
+  <dimension ref="A2:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI2" sqref="AI2:AI5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="37" width="30.69921875" customWidth="1"/>
+    <col min="2" max="67" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1168,8 +1358,98 @@
       <c r="AK2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="AL2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1281,8 +1561,42 @@
       <c r="AK3" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="AL3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:37" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1394,8 +1708,42 @@
       <c r="AK4" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="AL4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:37" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:67" ht="400.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1505,10 +1853,118 @@
       <c r="AK5" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="AL5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6243CA-FF26-4F4B-B3E4-16D01F307479}">
+  <dimension ref="H7:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1900D-966D-4B98-A771-99D121A83947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC118E-E170-458D-9A88-0C6BC0186152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="140">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,12 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Ridding
-Navigation
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillComponent
 QuickSlotComponent
 기타 스킬</t>
@@ -811,6 +805,35 @@
   </si>
   <si>
     <t>장비창 https://www.youtube.com/watch?v=a9iho861SlY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridding
+Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템구조 재정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템구조 재정리
+DataAsset 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation
+SkillComponent
+QuickSlotComponent
+기타 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridding
+Navigation
+SkillComponent
+QuickSlotComponent
+기타 스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,9 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
   <dimension ref="A2:BO5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
+      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1449,7 +1472,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1565,11 +1588,17 @@
         <v>120</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
@@ -1712,11 +1741,17 @@
         <v>89</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
@@ -1859,9 +1894,15 @@
       <c r="AM5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AN5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
@@ -1899,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6243CA-FF26-4F4B-B3E4-16D01F307479}">
   <dimension ref="H7:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1907,60 +1948,60 @@
   <sheetData>
     <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC118E-E170-458D-9A88-0C6BC0186152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409DDE81-9E68-4315-8E73-A0DA9EFA3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1262,8 +1262,8 @@
   <dimension ref="A2:BO5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN5"/>
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP3" sqref="AP2:AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1599,8 +1599,12 @@
       <c r="AP3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
+      <c r="AQ3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
       <c r="AU3" s="5"/>
@@ -1752,8 +1756,12 @@
       <c r="AP4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
+      <c r="AQ4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
@@ -1903,8 +1911,12 @@
       <c r="AP5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
+      <c r="AQ5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\UnrealProjects\CPP\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409DDE81-9E68-4315-8E73-A0DA9EFA3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CEFFAF-E829-4C44-A774-E5FCFBF47DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -1266,12 +1266,12 @@
       <selection pane="topRight" activeCell="AP3" sqref="AP2:AP5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="67" width="30.69921875" customWidth="1"/>
+    <col min="2" max="67" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:67" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:67" ht="400.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:67" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1953,27 +1953,27 @@
   <dimension ref="H7:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -1981,37 +1981,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\UnrealProjects\CPP\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CEFFAF-E829-4C44-A774-E5FCFBF47DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41160F13-FCFC-4D38-8DA8-0D55B8D5C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,6 +834,12 @@
 SkillComponent
 QuickSlotComponent
 기타 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridding
+Jump
+Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1263,15 +1269,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP3" sqref="AP2:AP5"/>
+      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="67" width="30.75" customWidth="1"/>
+    <col min="2" max="67" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1472,7 +1478,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1605,8 +1611,12 @@
       <c r="AR3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
+      <c r="AS3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="AU3" s="5"/>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
@@ -1629,7 +1639,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:67" ht="99" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1762,8 +1772,12 @@
       <c r="AR4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
+      <c r="AS4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
@@ -1786,7 +1800,7 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:67" ht="379.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="400.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1917,8 +1931,12 @@
       <c r="AR5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
+      <c r="AS5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
@@ -1956,24 +1974,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -1981,37 +1999,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41160F13-FCFC-4D38-8DA8-0D55B8D5C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B671DE0-75E6-4071-96A9-7911C016726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,6 +842,76 @@
 Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow
+Bow_Skill</t>
+  </si>
+  <si>
+    <t>Bow
+Bow_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -886,7 +956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -926,13 +996,22 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
-  <dimension ref="A2:BO5"/>
+  <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR5"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1617,11 +1702,21 @@
       <c r="AT3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
+      <c r="AU3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
@@ -1639,7 +1734,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:67" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1778,11 +1873,21 @@
       <c r="AT4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
+      <c r="AU4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
@@ -1800,7 +1905,7 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:67" ht="400.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1934,14 +2039,24 @@
       <c r="AS5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
+      <c r="AU5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
@@ -1959,7 +2074,23 @@
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
     </row>
+    <row r="6" spans="1:67" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B671DE0-75E6-4071-96A9-7911C016726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C45B1-F6BE-4736-B566-7A8DF839C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1035,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,16 +1359,16 @@
   <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV4" sqref="AV4"/>
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="67" width="30.69921875" customWidth="1"/>
+    <col min="2" max="67" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1563,7 +1569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1740,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,7 +1911,7 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2057,33 +2063,63 @@
       <c r="AY5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
       <c r="BO5" s="5"/>
     </row>
-    <row r="6" spans="1:67" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:67" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="21">
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
@@ -2105,24 +2141,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -2130,37 +2166,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C45B1-F6BE-4736-B566-7A8DF839C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B0A663-403D-49C1-B641-AA66EBA86057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,6 +910,83 @@
 Ridding
 Jump
 Bow_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillComponent
+SkillTree_Widget
+QuickSlotComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTree_Widget
+QuickSlotComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation
+기타 스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,16 +1108,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,17 +1450,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
   <dimension ref="A2:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB2" sqref="BB2:BB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="67" width="30.75" customWidth="1"/>
+    <col min="2" max="67" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1569,7 +1661,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1725,9 +1817,15 @@
       </c>
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
+      <c r="BB3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="BE3" s="5"/>
       <c r="BF3" s="5"/>
       <c r="BG3" s="5"/>
@@ -1740,7 +1838,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1896,9 +1994,15 @@
       </c>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
+      <c r="BB4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
       <c r="BG4" s="5"/>
@@ -1911,221 +2015,271 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AM5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AO5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AS5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AT5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="6" t="s">
+      <c r="AU5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AW5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AX5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="AY5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
       <c r="BO5" s="5"/>
     </row>
-    <row r="6" spans="1:67" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
+    <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,24 +2295,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -2166,37 +2320,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B0A663-403D-49C1-B641-AA66EBA86057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44621D-78B4-4518-A4F8-A067F332FB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +987,47 @@
   <si>
     <t>Navigation
 기타 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSlotComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSlotComponent
+QuickSlotWidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,32 +1148,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,9 +1491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
   <dimension ref="A2:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB2" sqref="BB2:BB6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD2" sqref="BD2:BD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1826,8 +1867,12 @@
       <c r="BD3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
+      <c r="BE3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="BG3" s="5"/>
       <c r="BH3" s="5"/>
       <c r="BI3" s="5"/>
@@ -2003,8 +2048,12 @@
       <c r="BD4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
+      <c r="BE4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
       <c r="BI4" s="5"/>
@@ -2019,267 +2068,271 @@
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AF5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AM5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AN5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AO5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AP5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AR5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AW5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="9" t="s">
         <v>145</v>
       </c>
       <c r="AZ5" s="11"/>
       <c r="BA5" s="11"/>
-      <c r="BB5" s="10" t="s">
+      <c r="BB5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
+      <c r="BE5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
       <c r="BO5" s="5"/>
     </row>
     <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44621D-78B4-4518-A4F8-A067F332FB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CEB15-7616-4A52-BE20-C6CEC2933D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1158,6 +1158,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1168,12 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,8 +1492,8 @@
   <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD2" sqref="BD2:BD6"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1873,8 +1873,12 @@
       <c r="BF3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
+      <c r="BG3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
@@ -2054,8 +2058,12 @@
       <c r="BF4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
+      <c r="BG4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
       <c r="BK4" s="5"/>
@@ -2198,49 +2206,53 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="9" t="s">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="9" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="9" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="9" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
+      <c r="BG5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
       <c r="BO5" s="5"/>
     </row>
     <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
@@ -2288,51 +2300,51 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
-      <c r="BK6" s="14"/>
-      <c r="BL6" s="14"/>
-      <c r="BM6" s="14"/>
-      <c r="BN6" s="14"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CEB15-7616-4A52-BE20-C6CEC2933D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAAF19D-614E-4430-971C-A1F829F364C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,6 +1028,66 @@
   <si>
     <t>QuickSlotComponent
 QuickSlotWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation
+기타 스킬
+QuickSlotComponent
+QuickSlotWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget 구조 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget 구조 변경
+Widget TitleBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget
+Widget 구조 변경
+Widget TitleBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 스킬
+QuickSlotComponent
+QuickSlotWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,12 +1218,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1228,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,8 +1552,8 @@
   <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM3" sqref="BM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1880,9 +1940,15 @@
         <v>150</v>
       </c>
       <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
+      <c r="BJ3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
@@ -2065,9 +2131,15 @@
         <v>153</v>
       </c>
       <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
+      <c r="BJ4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
@@ -2206,53 +2278,59 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="11" t="s">
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="11" t="s">
+      <c r="BF5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="11" t="s">
+      <c r="BH5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
       <c r="BO5" s="5"/>
     </row>
     <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
@@ -2300,51 +2378,51 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="14"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAAF19D-614E-4430-971C-A1F829F364C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57198A3B-B577-4B01-8B64-C8A3A00A367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,6 +1088,10 @@
   </si>
   <si>
     <t>Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WidgetSlot 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,16 +1228,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,8 +1556,8 @@
   <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM3" sqref="BM3"/>
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM2" sqref="BM2:BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1949,7 +1953,9 @@
       <c r="BL3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BM3" s="5"/>
+      <c r="BM3" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
@@ -2140,7 +2146,9 @@
       <c r="BL4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BM4" s="5"/>
+      <c r="BM4" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
@@ -2296,8 +2304,8 @@
       <c r="AY5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
       <c r="BB5" s="9" t="s">
         <v>145</v>
       </c>
@@ -2319,7 +2327,7 @@
       <c r="BH5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="13"/>
+      <c r="BI5" s="11"/>
       <c r="BJ5" s="9" t="s">
         <v>151</v>
       </c>
@@ -2329,8 +2337,10 @@
       <c r="BL5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
+      <c r="BM5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN5" s="11"/>
       <c r="BO5" s="5"/>
     </row>
     <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
@@ -2384,8 +2394,8 @@
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
@@ -2393,36 +2403,36 @@
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
       <c r="BH6" s="10"/>
-      <c r="BI6" s="14"/>
+      <c r="BI6" s="12"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="14"/>
-      <c r="BN6" s="14"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57198A3B-B577-4B01-8B64-C8A3A00A367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55C5E2-EE49-499E-A375-E90AC89ED634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,16 +1228,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,7 +1556,7 @@
   <dimension ref="A2:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BM2" sqref="BM2:BM6"/>
     </sheetView>
   </sheetViews>
@@ -1956,8 +1956,12 @@
       <c r="BM3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
+      <c r="BN3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -2149,8 +2153,12 @@
       <c r="BM4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
+      <c r="BN4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -2304,8 +2312,8 @@
       <c r="AY5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
       <c r="BB5" s="9" t="s">
         <v>145</v>
       </c>
@@ -2327,7 +2335,7 @@
       <c r="BH5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="11"/>
+      <c r="BI5" s="13"/>
       <c r="BJ5" s="9" t="s">
         <v>151</v>
       </c>
@@ -2340,8 +2348,12 @@
       <c r="BM5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="5"/>
+      <c r="BN5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
@@ -2394,8 +2406,8 @@
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
@@ -2403,36 +2415,38 @@
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
       <c r="BH6" s="10"/>
-      <c r="BI6" s="12"/>
+      <c r="BI6" s="14"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
       <c r="BM6" s="10"/>
-      <c r="BN6" s="12"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55C5E2-EE49-499E-A375-E90AC89ED634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A155D70-6C63-4CC9-A78C-522E3126AEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="194">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1094,6 +1094,142 @@
     <t>WidgetSlot 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1월4일</t>
+  </si>
+  <si>
+    <t>1월5일</t>
+  </si>
+  <si>
+    <t>1월6일</t>
+  </si>
+  <si>
+    <t>1월7일</t>
+  </si>
+  <si>
+    <t>1월8일</t>
+  </si>
+  <si>
+    <t>1월9일</t>
+  </si>
+  <si>
+    <t>1월10일</t>
+  </si>
+  <si>
+    <t>1월11일</t>
+  </si>
+  <si>
+    <t>1월12일</t>
+  </si>
+  <si>
+    <t>1월13일</t>
+  </si>
+  <si>
+    <t>1월14일</t>
+  </si>
+  <si>
+    <t>1월15일</t>
+  </si>
+  <si>
+    <t>1월16일</t>
+  </si>
+  <si>
+    <t>1월17일</t>
+  </si>
+  <si>
+    <t>1월18일</t>
+  </si>
+  <si>
+    <t>1월19일</t>
+  </si>
+  <si>
+    <t>1월20일</t>
+  </si>
+  <si>
+    <t>1월21일</t>
+  </si>
+  <si>
+    <t>1월22일</t>
+  </si>
+  <si>
+    <t>1월23일</t>
+  </si>
+  <si>
+    <t>1월24일</t>
+  </si>
+  <si>
+    <t>1월25일</t>
+  </si>
+  <si>
+    <t>1월26일</t>
+  </si>
+  <si>
+    <t>1월27일</t>
+  </si>
+  <si>
+    <t>1월28일</t>
+  </si>
+  <si>
+    <t>1월29일</t>
+  </si>
+  <si>
+    <t>1월30일</t>
+  </si>
+  <si>
+    <t>1월31일</t>
+  </si>
+  <si>
+    <t>1월1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월3일</t>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget
+Widget 구조 변경
+Widget TitleBar
+QuickSlotComponent
+QuickSlotWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 스킬
+ AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1138,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1187,13 +1323,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,15 +1375,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,19 +1706,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242989C-B920-47FF-90B3-A6C672497061}">
-  <dimension ref="A2:BO6"/>
+  <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM2" sqref="BM2:BM6"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ2" sqref="BQ2:BQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="67" width="30.69921875" customWidth="1"/>
+    <col min="2" max="98" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1765,8 +1918,101 @@
       <c r="BO2" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="BP2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB2" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC2" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="CH2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="CK2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="CM2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ2" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="CR2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT2" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2208,20 @@
       <c r="BO3" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="BP3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,8 +2417,20 @@
       <c r="BO4" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="BP4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2312,8 +2582,8 @@
       <c r="AY5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
       <c r="BB5" s="9" t="s">
         <v>145</v>
       </c>
@@ -2335,7 +2605,7 @@
       <c r="BH5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="13"/>
+      <c r="BI5" s="11"/>
       <c r="BJ5" s="9" t="s">
         <v>151</v>
       </c>
@@ -2354,8 +2624,56 @@
       <c r="BO5" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="BP5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
     </row>
-    <row r="6" spans="1:67" ht="186" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" ht="186" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2406,8 +2724,8 @@
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
@@ -2415,38 +2733,118 @@
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
       <c r="BH6" s="10"/>
-      <c r="BI6" s="14"/>
+      <c r="BI6" s="12"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
       <c r="BM6" s="10"/>
       <c r="BN6" s="10"/>
       <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="62">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BJ5:BJ6"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BL5:BL6"/>
     <mergeCell ref="BM5:BM6"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AX5:AX6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A155D70-6C63-4CC9-A78C-522E3126AEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE7A91-63B5-4855-9488-FDFF6BBC2D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="194">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,6 +1368,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1375,21 +1381,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,15 +1710,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ2" sqref="BQ2:BQ6"/>
+      <selection pane="topRight" activeCell="BR2" sqref="BR2:BR6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="98" width="30.69921875" customWidth="1"/>
+    <col min="2" max="98" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1918,101 +1918,101 @@
       <c r="BO2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BP2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BR2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="BS2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BT2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BU2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="BV2" s="15" t="s">
+      <c r="BV2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="BW2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BX2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="BY2" s="15" t="s">
+      <c r="BY2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="BZ2" s="15" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="CA2" s="15" t="s">
+      <c r="CA2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CB2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CD2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="CF2" s="15" t="s">
+      <c r="CF2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CG2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="CH2" s="15" t="s">
+      <c r="CH2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="CI2" s="15" t="s">
+      <c r="CI2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CJ2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="CK2" s="15" t="s">
+      <c r="CK2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="CL2" s="15" t="s">
+      <c r="CL2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="CM2" s="15" t="s">
+      <c r="CM2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="CN2" s="15" t="s">
+      <c r="CN2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="CO2" s="15" t="s">
+      <c r="CO2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="CP2" s="15" t="s">
+      <c r="CP2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CQ2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="CR2" s="15" t="s">
+      <c r="CR2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="CS2" s="15" t="s">
+      <c r="CS2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="CT2" s="15" t="s">
+      <c r="CT2" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2220,8 +2220,17 @@
       <c r="BS3" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="BT3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2429,8 +2438,17 @@
       <c r="BS4" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="BT4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2564,116 +2582,122 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
-      <c r="BB5" s="9" t="s">
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="9" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="9" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="9" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="9" t="s">
+      <c r="BG5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="9" t="s">
+      <c r="BH5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="9" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="9" t="s">
+      <c r="BK5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="9" t="s">
+      <c r="BL5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="9" t="s">
+      <c r="BM5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="9" t="s">
+      <c r="BN5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="9" t="s">
+      <c r="BO5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="9" t="s">
+      <c r="BP5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="9" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="9" t="s">
+      <c r="BR5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="9" t="s">
+      <c r="BS5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="16"/>
-      <c r="BU5" s="16"/>
-      <c r="BV5" s="16"/>
-      <c r="BW5" s="16"/>
-      <c r="BX5" s="16"/>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
+      <c r="BT5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
     </row>
-    <row r="6" spans="1:107" ht="186" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2718,133 +2742,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="16"/>
-      <c r="BU6" s="16"/>
-      <c r="BV6" s="16"/>
-      <c r="BW6" s="16"/>
-      <c r="BX6" s="16"/>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,24 +2884,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -2885,37 +2909,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE7A91-63B5-4855-9488-FDFF6BBC2D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB37E6D-8B10-4638-9F6A-E03C7B663C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="197">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,6 +1228,53 @@
   <si>
     <t>기타 스킬
  AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation
+SkillCombo
+ AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget
+Widget 구조 변경
+Widget TitleBar
+QuickSlotComponent
+QuickSlotWidget
+DashSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,9 +1418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1381,15 +1425,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,16 +1756,16 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR2" sqref="BR2:BR6"/>
+      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BW2" sqref="BW2:BW6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="98" width="30.75" customWidth="1"/>
+    <col min="2" max="98" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2012,7 +2059,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2229,8 +2276,17 @@
       <c r="BV3" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="BW3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,8 +2503,17 @@
       <c r="BV4" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="BW4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY4" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2582,122 +2647,128 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="11" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="11" t="s">
+      <c r="BF5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="11" t="s">
+      <c r="BH5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="11" t="s">
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="11" t="s">
+      <c r="BK5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="11" t="s">
+      <c r="BL5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="11" t="s">
+      <c r="BM5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BN5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BP5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="11" t="s">
+      <c r="BQ5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="11" t="s">
+      <c r="BR5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="11" t="s">
+      <c r="BS5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="11" t="s">
+      <c r="BT5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="11" t="s">
+      <c r="BU5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BV5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="10"/>
-      <c r="BZ5" s="10"/>
-      <c r="CA5" s="10"/>
-      <c r="CB5" s="10"/>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="10"/>
-      <c r="CG5" s="10"/>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10"/>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
+      <c r="BW5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BX5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
     </row>
-    <row r="6" spans="1:107" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2742,133 +2813,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
+      <c r="BT6" s="11"/>
+      <c r="BU6" s="11"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BJ5:BJ6"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BL5:BL6"/>
     <mergeCell ref="BM5:BM6"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2884,24 +2955,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -2909,37 +2980,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB37E6D-8B10-4638-9F6A-E03C7B663C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52459F47-F3E8-4387-A8A3-82138A0A69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1275,6 +1275,17 @@
 QuickSlotComponent
 QuickSlotWidget
 DashSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 스킬
+SkillCombo
+AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,6 +1429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1425,18 +1439,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,8 +1767,8 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW2" sqref="BW2:BW6"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA3" sqref="CA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2285,6 +2296,12 @@
       <c r="BY3" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="BZ3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -2512,6 +2529,12 @@
       <c r="BY4" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="BZ4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -2647,126 +2670,130 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="10" t="s">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BG5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BH5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="10" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="10" t="s">
+      <c r="BK5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="10" t="s">
+      <c r="BL5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="10" t="s">
+      <c r="BN5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="10" t="s">
+      <c r="BO5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BP5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="10" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="10" t="s">
+      <c r="BR5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BS5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="10" t="s">
+      <c r="BT5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="10" t="s">
+      <c r="BU5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="10" t="s">
+      <c r="BV5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BW5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BX5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="BY5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
+      <c r="BZ5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
     </row>
     <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
@@ -2813,133 +2840,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52459F47-F3E8-4387-A8A3-82138A0A69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A543A2-89EB-4B7F-B548-3AAACEE86CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1278,14 +1278,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw+CC5
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget
+Widget 구조 변경
+Widget TitleBar
+QuickSlotComponent
+QuickSlotWidget
+DashSkill
+SkillCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기타 스킬
-SkillCombo
 AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Navigation
-</t>
+    <t>Navigation
+AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 스킬
+SkillCombo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,9 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1439,15 +1478,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,8 +1809,8 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA3" sqref="CA3"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA2" sqref="CA2:CA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2300,7 +2342,13 @@
         <v>195</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
@@ -2533,7 +2581,13 @@
         <v>194</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2670,130 +2724,134 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="11" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="11" t="s">
+      <c r="BF5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="11" t="s">
+      <c r="BH5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="11" t="s">
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="11" t="s">
+      <c r="BK5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="11" t="s">
+      <c r="BL5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="11" t="s">
+      <c r="BM5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BN5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BP5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="11" t="s">
+      <c r="BQ5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="11" t="s">
+      <c r="BR5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="11" t="s">
+      <c r="BS5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="11" t="s">
+      <c r="BT5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="11" t="s">
+      <c r="BU5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BV5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="11" t="s">
+      <c r="BW5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="11" t="s">
+      <c r="BX5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="11" t="s">
+      <c r="BY5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="11" t="s">
+      <c r="BZ5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="11" t="s">
+      <c r="CA5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="10"/>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="10"/>
-      <c r="CG5" s="10"/>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10"/>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
+      <c r="CB5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
     </row>
     <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
@@ -2840,133 +2898,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
+      <c r="BT6" s="11"/>
+      <c r="BU6" s="11"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="11"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BJ5:BJ6"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BL5:BL6"/>
     <mergeCell ref="BM5:BM6"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A543A2-89EB-4B7F-B548-3AAACEE86CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBD24F-C46D-4CE1-BC19-B1528F31F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1328,6 +1328,11 @@
   <si>
     <t>기타 스킬
 SkillCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI
+AI_Behavior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,6 +1476,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1478,18 +1486,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,15 +1815,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA2" sqref="CA2:CA6"/>
+      <selection pane="topRight" activeCell="CF2" sqref="CF2:CF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="98" width="30.69921875" customWidth="1"/>
+    <col min="2" max="98" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2112,7 +2117,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2350,8 +2355,17 @@
       <c r="CC3" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="CF3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2589,8 +2603,17 @@
       <c r="CC4" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="CF4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2724,136 +2747,142 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="10" t="s">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BG5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BH5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="10" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="10" t="s">
+      <c r="BK5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="10" t="s">
+      <c r="BL5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="10" t="s">
+      <c r="BN5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="10" t="s">
+      <c r="BO5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BP5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="10" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="10" t="s">
+      <c r="BR5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BS5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="10" t="s">
+      <c r="BT5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="10" t="s">
+      <c r="BU5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="10" t="s">
+      <c r="BV5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BW5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BX5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="BY5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="10" t="s">
+      <c r="BZ5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="10" t="s">
+      <c r="CA5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="10" t="s">
+      <c r="CB5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="10" t="s">
+      <c r="CC5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
     </row>
-    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2898,133 +2927,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,24 +3069,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -3065,37 +3094,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBD24F-C46D-4CE1-BC19-B1528F31F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF5A36-9200-4F11-8A61-F5540B62847E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,6 +1333,50 @@
   <si>
     <t>AI
 AI_Behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 구조
+PushingComponent
+(SphereComponent 상속)
+HP UI
+Citem
+CEquipActor
+CEquipActor_Dual
+StateComponent+BE5
+CWeaponAsset
+CDoAction
+Cequipment
+StatusCompoent
+CSkill
+CSkill_Passive
+CSkill_Active
+CSlashProjectile
+CSkill_Active_Slash
+CSkill_Active_Throw
+CBoomerang_Thorw+CC5
+CDropItem
+InventoryComponent
+InventoryWidget
+HitWidget
+Ridding+CI5
+Jump
+Bow_Skill
+Bow
+SkillComponent
+SkillTree_Widget
+Widget 구조 변경
+Widget TitleBar
+QuickSlotComponent
+QuickSlotWidget
+DashSkill
+SkillCombo
+AI_Behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI
+원거리 무기, AI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,9 +1520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1486,15 +1527,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1814,16 +1858,16 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF2" sqref="CF2:CF6"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH2" sqref="CH2:CH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="98" width="30.75" customWidth="1"/>
+    <col min="2" max="98" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2117,7 +2161,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2364,8 +2408,14 @@
       <c r="CH3" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="CI3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2612,8 +2662,14 @@
       <c r="CH4" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="CI4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2747,142 +2803,146 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="11" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="11" t="s">
+      <c r="BF5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="11" t="s">
+      <c r="BH5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="11" t="s">
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="11" t="s">
+      <c r="BK5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="11" t="s">
+      <c r="BL5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="11" t="s">
+      <c r="BM5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BN5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BP5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="11" t="s">
+      <c r="BQ5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="11" t="s">
+      <c r="BR5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="11" t="s">
+      <c r="BS5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="11" t="s">
+      <c r="BT5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="11" t="s">
+      <c r="BU5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BV5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="11" t="s">
+      <c r="BW5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="11" t="s">
+      <c r="BX5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="11" t="s">
+      <c r="BY5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="11" t="s">
+      <c r="BZ5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="11" t="s">
+      <c r="CA5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="11" t="s">
+      <c r="CB5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="11" t="s">
+      <c r="CC5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="11" t="s">
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="11" t="s">
+      <c r="CG5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CH5" s="11" t="s">
+      <c r="CH5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10"/>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
+      <c r="CI5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
     </row>
-    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2927,133 +2987,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="12"/>
-      <c r="CG6" s="12"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
+      <c r="BT6" s="11"/>
+      <c r="BU6" s="11"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="11"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="11"/>
+      <c r="CG6" s="11"/>
+      <c r="CH6" s="11"/>
+      <c r="CI6" s="11"/>
+      <c r="CJ6" s="11"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BJ5:BJ6"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BL5:BL6"/>
     <mergeCell ref="BM5:BM6"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,24 +3129,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -3094,37 +3154,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\Github\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF5A36-9200-4F11-8A61-F5540B62847E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBD24F-C46D-4CE1-BC19-B1528F31F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,50 +1333,6 @@
   <si>
     <t>AI
 AI_Behavior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 캐릭터 구조
-PushingComponent
-(SphereComponent 상속)
-HP UI
-Citem
-CEquipActor
-CEquipActor_Dual
-StateComponent+BE5
-CWeaponAsset
-CDoAction
-Cequipment
-StatusCompoent
-CSkill
-CSkill_Passive
-CSkill_Active
-CSlashProjectile
-CSkill_Active_Slash
-CSkill_Active_Throw
-CBoomerang_Thorw+CC5
-CDropItem
-InventoryComponent
-InventoryWidget
-HitWidget
-Ridding+CI5
-Jump
-Bow_Skill
-Bow
-SkillComponent
-SkillTree_Widget
-Widget 구조 변경
-Widget TitleBar
-QuickSlotComponent
-QuickSlotWidget
-DashSkill
-SkillCombo
-AI_Behavior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI
-원거리 무기, AI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,6 +1476,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1527,18 +1486,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1858,16 +1814,16 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH2" sqref="CH2:CH6"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF2" sqref="CF2:CF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="98" width="30.69921875" customWidth="1"/>
+    <col min="2" max="98" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2161,7 +2117,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2408,14 +2364,8 @@
       <c r="CH3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CI3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>150</v>
-      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2662,14 +2612,8 @@
       <c r="CH4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CI4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
-        <v>203</v>
-      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2803,146 +2747,142 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="10" t="s">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BG5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BH5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="10" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="10" t="s">
+      <c r="BK5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="10" t="s">
+      <c r="BL5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="10" t="s">
+      <c r="BN5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="10" t="s">
+      <c r="BO5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BP5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="10" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="10" t="s">
+      <c r="BR5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BS5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="10" t="s">
+      <c r="BT5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="10" t="s">
+      <c r="BU5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="10" t="s">
+      <c r="BV5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BW5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BX5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="BY5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="10" t="s">
+      <c r="BZ5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="10" t="s">
+      <c r="CA5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="10" t="s">
+      <c r="CB5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="10" t="s">
+      <c r="CC5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="10" t="s">
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="10" t="s">
+      <c r="CG5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CH5" s="10" t="s">
+      <c r="CH5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CI5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="CJ5" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
     </row>
-    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2987,133 +2927,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="11"/>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,24 +3069,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -3154,37 +3094,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF5A36-9200-4F11-8A61-F5540B62847E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072C51B-4BE9-449F-9A06-EE9600EF5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="205">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1377,6 +1377,10 @@
   <si>
     <t>AI
 원거리 무기, AI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정중..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,6 +1524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1527,18 +1534,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1858,16 +1862,16 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH2" sqref="CH2:CH6"/>
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM2" sqref="CM2:CM6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="98" width="30.69921875" customWidth="1"/>
+    <col min="2" max="98" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2161,7 +2165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2418,17 @@
       <c r="CJ3" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="CM3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2668,8 +2681,17 @@
       <c r="CJ4" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="CM4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO4" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2803,146 +2825,152 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AW5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="10" t="s">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BG5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BH5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="10" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="10" t="s">
+      <c r="BK5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="10" t="s">
+      <c r="BL5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="10" t="s">
+      <c r="BN5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="10" t="s">
+      <c r="BO5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BP5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="10" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="10" t="s">
+      <c r="BR5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BS5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="10" t="s">
+      <c r="BT5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="10" t="s">
+      <c r="BU5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="10" t="s">
+      <c r="BV5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BW5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BX5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="BY5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="10" t="s">
+      <c r="BZ5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="10" t="s">
+      <c r="CA5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="10" t="s">
+      <c r="CB5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="10" t="s">
+      <c r="CC5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="10" t="s">
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="10" t="s">
+      <c r="CG5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CH5" s="10" t="s">
+      <c r="CH5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CI5" s="10" t="s">
+      <c r="CI5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="CJ5" s="10" t="s">
+      <c r="CJ5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
     </row>
-    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2987,133 +3015,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="11"/>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
     <mergeCell ref="AY5:AY6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,24 +3157,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>127</v>
       </c>
@@ -3154,37 +3182,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/포폴작업현황.xlsx
+++ b/포폴작업현황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67728\Documents\GitHub\UnrealCPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072C51B-4BE9-449F-9A06-EE9600EF5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB6BDB5-7DA9-4DA6-BE31-096E04C6C3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8DDB0EB3-E758-4E62-81CB-722328F53995}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="209">
   <si>
     <t>10월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,6 +1383,21 @@
     <t>버그 수정중..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2월12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월13일</t>
+  </si>
+  <si>
+    <t>2월14일</t>
+  </si>
+  <si>
+    <t>보스 AI
+Map제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1427,7 +1442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1487,13 +1502,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,9 +1548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1534,16 +1555,25 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,13 +1892,14 @@
   <dimension ref="A2:DC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM2" sqref="CM2:CM6"/>
+      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV2" sqref="CV2:CV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="98" width="30.75" customWidth="1"/>
+    <col min="100" max="113" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:107" x14ac:dyDescent="0.3">
@@ -2164,6 +2195,15 @@
       <c r="CT2" s="9" t="s">
         <v>188</v>
       </c>
+      <c r="CV2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="CX2" s="17" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="3" spans="1:107" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2427,6 +2467,15 @@
       <c r="CO3" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="CV3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CX3" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:107" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2690,6 +2739,15 @@
       <c r="CO4" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="CV4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CX4" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="5" spans="1:107" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2825,150 +2883,156 @@
       <c r="AS5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="11" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BF5" s="11" t="s">
+      <c r="BF5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="11" t="s">
+      <c r="BH5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="11" t="s">
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BK5" s="11" t="s">
+      <c r="BK5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="11" t="s">
+      <c r="BL5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BM5" s="11" t="s">
+      <c r="BM5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BN5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BP5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BQ5" s="11" t="s">
+      <c r="BQ5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BR5" s="11" t="s">
+      <c r="BR5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BS5" s="11" t="s">
+      <c r="BS5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="11" t="s">
+      <c r="BT5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BU5" s="11" t="s">
+      <c r="BU5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BV5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BW5" s="11" t="s">
+      <c r="BW5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="11" t="s">
+      <c r="BX5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BY5" s="11" t="s">
+      <c r="BY5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="BZ5" s="11" t="s">
+      <c r="BZ5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CA5" s="11" t="s">
+      <c r="CA5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CB5" s="11" t="s">
+      <c r="CB5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="11" t="s">
+      <c r="CC5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="11" t="s">
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="11" t="s">
+      <c r="CG5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CH5" s="11" t="s">
+      <c r="CH5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CI5" s="11" t="s">
+      <c r="CI5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CJ5" s="11" t="s">
+      <c r="CJ5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="11" t="s">
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="CN5" s="11" t="s">
+      <c r="CN5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="CO5" s="11" t="s">
+      <c r="CO5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
     </row>
     <row r="6" spans="1:107" ht="309" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
@@ -3015,133 +3079,133 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="12"/>
-      <c r="CG6" s="12"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="12"/>
-      <c r="CJ6" s="12"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
+      <c r="BT6" s="11"/>
+      <c r="BU6" s="11"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="11"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="11"/>
+      <c r="CG6" s="11"/>
+      <c r="CH6" s="11"/>
+      <c r="CI6" s="11"/>
+      <c r="CJ6" s="11"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="11"/>
+      <c r="CN6" s="11"/>
+      <c r="CO6" s="11"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="18"/>
+      <c r="CW6" s="18"/>
+      <c r="CX6" s="18"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="DA5:DA6"/>
+    <mergeCell ref="DB5:DB6"/>
+    <mergeCell ref="DC5:DC6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CV6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BJ5:BJ6"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BL5:BL6"/>
     <mergeCell ref="BM5:BM6"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="CA5:CA6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CV6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="DA5:DA6"/>
-    <mergeCell ref="DB5:DB6"/>
-    <mergeCell ref="DC5:DC6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
